--- a/ДЗ №3.xlsx
+++ b/ДЗ №3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>проверить создание\удаление категорий</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>проверить корректно ли работает кнопка "Показывать различающиеся характеристики"</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -576,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -593,7 +596,7 @@
     <col min="16" max="16" width="103.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -603,43 +606,61 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -649,36 +670,48 @@
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -689,14 +722,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="120">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -707,14 +740,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
